--- a/public/background_slideshow/background_image_data.xlsx
+++ b/public/background_slideshow/background_image_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Projects\shpe_website\my_shpe_website\public\background_slideshow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Clean 3\Projects\shpe_website\my_shpe_website\public\background_slideshow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9671F18-8B56-414E-8E86-EEF26C0C24E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EDCCC9-4A7A-4F50-8B03-C7A5B7DFB570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62175" yWindow="5835" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>buttonBorderColor</t>
   </si>
   <si>
-    <t>PORTLANDe STATE UNIVERSITY</t>
-  </si>
-  <si>
     <t>arrowColor</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>#2d0163</t>
+  </si>
+  <si>
+    <t>PORTLAND STATE UNIVERSITY</t>
   </si>
 </sst>
 </file>
@@ -443,12 +443,12 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,12 +480,12 @@
         <v>26</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -507,16 +507,16 @@
         <v>24</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -539,16 +539,16 @@
         <v>24</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="K3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -571,21 +571,21 @@
         <v>24</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -594,22 +594,22 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/public/background_slideshow/background_image_data.xlsx
+++ b/public/background_slideshow/background_image_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Clean 3\Projects\shpe_website\my_shpe_website\public\background_slideshow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\psu_shpe_website-main\psu_shpe_website-main\public\background_slideshow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EDCCC9-4A7A-4F50-8B03-C7A5B7DFB570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDCBE7E-805D-4424-A465-971B7B3678D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="4150" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>title</t>
   </si>
@@ -49,9 +49,6 @@
     <t>external</t>
   </si>
   <si>
-    <t>https://www.pdx.edu/civil-environmental-engineering/student-orgs</t>
-  </si>
-  <si>
     <t>DISCOVER OUR COMMUNITY</t>
   </si>
   <si>
@@ -112,28 +109,10 @@
     <t>#5d781d</t>
   </si>
   <si>
-    <t>"The truth will set you free.”</t>
-  </si>
-  <si>
-    <t>UNIVERSITY OF PORTLAND</t>
-  </si>
-  <si>
-    <t>https://www.up.edu/resources/images/banner-aerial-dec-2022.jpg</t>
-  </si>
-  <si>
-    <t>https://www.vanwagner.com/wp-content/uploads/2023/09/Portland.png</t>
-  </si>
-  <si>
-    <t>https://sites.up.edu/shpe/welcome/</t>
-  </si>
-  <si>
-    <t>#330072</t>
-  </si>
-  <si>
-    <t>#2d0163</t>
-  </si>
-  <si>
     <t>PORTLAND STATE UNIVERSITY</t>
+  </si>
+  <si>
+    <t>https://www.pdx.edu/</t>
   </si>
 </sst>
 </file>
@@ -443,12 +422,12 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,24 +447,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -496,121 +475,93 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="K3" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>28</v>
+      <c r="K4" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>35</v>
-      </c>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -618,11 +569,8 @@
     <hyperlink ref="F4" r:id="rId2" xr:uid="{A0755236-4248-4225-A9B7-8D1DF9F214BE}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{DAAC362E-7734-4B4D-BED6-86B60642A608}"/>
     <hyperlink ref="G4" r:id="rId4" xr:uid="{FF2F178C-C37F-43D7-A7F1-BBEAF4BF6604}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{4164B82C-F0AE-45A9-94CF-2BAA223BD7D3}"/>
-    <hyperlink ref="G5" r:id="rId6" xr:uid="{16B0A885-D659-4766-9819-8021FFA540FD}"/>
-    <hyperlink ref="E5" r:id="rId7" xr:uid="{C7007A6A-1D49-43F5-B69C-FB12280F1EAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>